--- a/temp.xlsx
+++ b/temp.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="168">
   <si>
     <t>Device Id</t>
   </si>
@@ -95,6 +95,54 @@
     <t>Table Counter</t>
   </si>
   <si>
+    <t>14761272</t>
+  </si>
+  <si>
+    <t>SLA0337OLT01</t>
+  </si>
+  <si>
+    <t>10.4.137.166</t>
+  </si>
+  <si>
+    <t>10.4.137.166,,</t>
+  </si>
+  <si>
+    <t>DeviceType(deviceTypeId=4704, deviceTypeCode=MA5608T_mini_OLT_HW, deviceTypeName=MA5608T_mini_OLT_HW, status=1, insertTime=2021-04-07 15:40:06.0, updateTime=2021-04-07 15:40:06.0)</t>
+  </si>
+  <si>
+    <t>Network(networkId=4, networkCode=GPON_OLT, networkName=GPON_OLT, parentId=3, status=1, insertTime=2021-04-07 15:25:47.0, updateTime=2021-04-07 15:44:56.0)</t>
+  </si>
+  <si>
+    <t>Vendor(vendorId=5863, vendorCode=Huawei, vendorName=Huawei, insertTime=2021-04-07 17:10:36.0, updateTime=2021-04-07 17:10:36.0)</t>
+  </si>
+  <si>
+    <t>Station(stationId=55284, stationCode=SLA0337, stationName=SLA337, stationTypeId=222, installDate=2009-11-16 00:00:00.0, departmentId=1738, locationId=9515, address=Suối nước Nóng  TP Sơn La- Sơn La, description=_, position=1, gpsX=21, gpsY=103, homeOwner=Tòng Văn Phớ, telephone=01693271948, status=1, insertTime=2021-04-07 08:05:51.0, updateTime=2021-04-08 07:58:47.0)</t>
+  </si>
+  <si>
+    <t>Department(departmentId=1738, departmentCode=S022001, departmentName=Cụm kỹ thuật Thành phố - Mường La, description=null, parentId=520, locationId=453, departmentLevelId=4, departmentTypeId=null, status=1, insertTime=2021-04-06 14:15:41.0, updateTime=2021-04-29 11:35:13.0)</t>
+  </si>
+  <si>
+    <t>Location(locationId=9515, locationCode=S022001009, locationName=Hua La, description=null, parentId=453, locationLevelId=5, status=1, insertTime=2021-04-06 14:13:56.0, updateTime=2021-04-29 11:35:11.0)</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2021-04-07 16:09:12.0</t>
+  </si>
+  <si>
+    <t>2021-05-05 08:22:39.0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
     <t>300295</t>
   </si>
   <si>
@@ -113,7 +161,7 @@
     <t>DeviceType(deviceTypeId=4706, deviceTypeCode=FSAP9800, deviceTypeName=FSAP9800, status=1, insertTime=2021-04-07 15:40:06.0, updateTime=2021-04-07 15:40:06.0)</t>
   </si>
   <si>
-    <t>Network(networkId=5, networkCode=DSLAM, networkName=DSLAM, parentId=1, status=1, module=ACCESS, insertTime=2021-04-07 15:25:47.0, updateTime=2021-04-07 15:44:56.0)</t>
+    <t>Network(networkId=5, networkCode=DSLAM, networkName=DSLAM, parentId=1, status=1, insertTime=2021-04-07 15:25:47.0, updateTime=2021-04-07 15:44:56.0)</t>
   </si>
   <si>
     <t>Vendor(vendorId=5864, vendorCode=ZTE, vendorName=ZTE, insertTime=2021-04-07 17:10:36.0, updateTime=2021-04-07 17:10:36.0)</t>
@@ -122,28 +170,16 @@
     <t>Station(stationId=52004, stationCode=SLA8001, stationName=SLA8001, stationTypeId=221, installDate=null, departmentId=1738, locationId=10946, address=BCHQS Sơn La, description=null, position=1, gpsX=21, gpsY=103, homeOwner=Bộ CHQS tỉnh Sơn La, telephone=null, status=1, insertTime=2021-04-07 08:05:51.0, updateTime=2021-04-08 07:58:47.0)</t>
   </si>
   <si>
-    <t>Department(departmentId=1738, departmentCode=S022001, departmentName=Cụm kỹ thuật Thành phố - Mường La, description=null, parentId=520, locationId=453, departmentLevelId=4, departmentTypeId=null, status=1, insertTime=2021-04-06 14:15:41.0, updateTime=2021-04-08 07:56:11.0)</t>
-  </si>
-  <si>
-    <t>Location(locationId=10946, locationCode=S022001013, locationName=Quyết Thắng, description=null, parentId=453, locationLevelId=5, status=1, insertTime=2021-04-06 14:13:56.0, updateTime=2021-04-08 07:56:10.0)</t>
+    <t>Location(locationId=10946, locationCode=S022001013, locationName=Quyết Thắng, description=null, parentId=453, locationLevelId=5, status=1, insertTime=2021-04-06 14:13:56.0, updateTime=2021-04-29 11:35:11.0)</t>
   </si>
   <si>
     <t>46346543</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2021-04-07 16:09:12.0</t>
-  </si>
-  <si>
-    <t>2021-04-08 08:04:31.0</t>
-  </si>
-  <si>
-    <t>V2</t>
-  </si>
-  <si>
-    <t>64</t>
+    <t>2021-05-05 08:23:02.0</t>
+  </si>
+  <si>
+    <t>SL_CORE_METRO_AGG_KV2</t>
   </si>
   <si>
     <t>120891</t>
@@ -161,13 +197,325 @@
     <t>DeviceType(deviceTypeId=4707, deviceTypeCode=S3100-28FC, deviceTypeName=MyPower S3100-28FC, status=1, insertTime=2021-04-07 15:40:06.0, updateTime=2021-04-07 15:40:06.0)</t>
   </si>
   <si>
-    <t>Network(networkId=6, networkCode=SWITCH, networkName=SWITCH, parentId=1, status=1, module=ACCESS, insertTime=2021-04-07 15:25:47.0, updateTime=2021-04-07 15:44:56.0)</t>
+    <t>Network(networkId=6, networkCode=SWITCH, networkName=SWITCH, parentId=1, status=1, insertTime=2021-04-07 15:25:47.0, updateTime=2021-04-07 15:44:56.0)</t>
   </si>
   <si>
     <t>Vendor(vendorId=5865, vendorCode=Maipu, vendorName=Maipu, insertTime=2021-04-07 17:10:36.0, updateTime=2021-04-07 17:10:36.0)</t>
   </si>
   <si>
-    <t>123456</t>
+    <t>2021-05-05 08:21:24.0</t>
+  </si>
+  <si>
+    <t>SL_ACCESS_METRO_KV1</t>
+  </si>
+  <si>
+    <t>294184</t>
+  </si>
+  <si>
+    <t>SLA8001ASW02</t>
+  </si>
+  <si>
+    <t>172.16.159.100</t>
+  </si>
+  <si>
+    <t>172.16.159.100,,</t>
+  </si>
+  <si>
+    <t>1231546133</t>
+  </si>
+  <si>
+    <t>13761991</t>
+  </si>
+  <si>
+    <t>SLA8001APA01</t>
+  </si>
+  <si>
+    <t>10.4.133.104</t>
+  </si>
+  <si>
+    <t>10.4.133.104,,</t>
+  </si>
+  <si>
+    <t>DeviceType(deviceTypeId=4713, deviceTypeCode=OVSxE64190, deviceTypeName=OVSxE64190, status=1, insertTime=2021-04-07 15:40:06.0, updateTime=2021-04-07 15:40:06.0)</t>
+  </si>
+  <si>
+    <t>Network(networkId=8, networkCode=GPON_AMP, networkName=GPON_AMP, parentId=3, status=1, insertTime=2021-04-07 15:25:48.0, updateTime=2021-04-07 15:44:56.0)</t>
+  </si>
+  <si>
+    <t>Vendor(vendorId=5869, vendorCode=Bktel, vendorName=Bktel, insertTime=2021-04-07 17:10:36.0, updateTime=2021-04-07 17:10:36.0)</t>
+  </si>
+  <si>
+    <t>OV008372</t>
+  </si>
+  <si>
+    <t>2021-05-05 08:22:15.0</t>
+  </si>
+  <si>
+    <t>13761992</t>
+  </si>
+  <si>
+    <t>SLA8001OLT01</t>
+  </si>
+  <si>
+    <t>10.4.133.102</t>
+  </si>
+  <si>
+    <t>10.4.133.102,100.100.100.131,200.200.200.231</t>
+  </si>
+  <si>
+    <t>DeviceType(deviceTypeId=4710, deviceTypeCode=OLT_ALU, deviceTypeName=OLT_ALU, status=1, insertTime=2021-04-07 15:40:06.0, updateTime=2021-04-07 15:40:06.0)</t>
+  </si>
+  <si>
+    <t>Vendor(vendorId=5867, vendorCode=ALU, vendorName=ALU, insertTime=2021-04-07 17:10:36.0, updateTime=2021-04-07 17:10:36.0)</t>
+  </si>
+  <si>
+    <t>Department(departmentId=1733, departmentCode=S022010, departmentName=Cụm kỹ thuật Mộc Châu - Vân Hồ, description=null, parentId=520, locationId=462, departmentLevelId=4, departmentTypeId=null, status=1, insertTime=2021-04-06 14:15:41.0, updateTime=2021-04-29 11:35:13.0)</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>100651</t>
+  </si>
+  <si>
+    <t>SLA8001DSL01</t>
+  </si>
+  <si>
+    <t>172.16.159.11</t>
+  </si>
+  <si>
+    <t>172.16.159.11,,</t>
+  </si>
+  <si>
+    <t>210006336541SS</t>
+  </si>
+  <si>
+    <t>99835</t>
+  </si>
+  <si>
+    <t>SLA8001PRT01</t>
+  </si>
+  <si>
+    <t>10.249.164.130</t>
+  </si>
+  <si>
+    <t>10.249.164.130,,</t>
+  </si>
+  <si>
+    <t>DeviceType(deviceTypeId=4717, deviceTypeCode=CX600-X16A, deviceTypeName=CX600-X16A, status=1, insertTime=2021-04-07 15:40:07.0, updateTime=2021-04-07 15:40:07.0)</t>
+  </si>
+  <si>
+    <t>Network(networkId=9, networkCode=CORE_PROVINCE, networkName=CORE_PROVINCE, parentId=1, status=1, insertTime=2021-04-07 15:25:49.0, updateTime=2021-04-07 15:43:49.0)</t>
+  </si>
+  <si>
+    <t>210235A124A087000033</t>
+  </si>
+  <si>
+    <t>2021-05-05 08:22:32.0</t>
+  </si>
+  <si>
+    <t>SL_CORE_METRO_CTCV</t>
+  </si>
+  <si>
+    <t>249069</t>
+  </si>
+  <si>
+    <t>SLA8001SRT01</t>
+  </si>
+  <si>
+    <t>10.246.32.105</t>
+  </si>
+  <si>
+    <t>10.246.32.105,,</t>
+  </si>
+  <si>
+    <t>DeviceType(deviceTypeId=4705, deviceTypeCode=5928E, deviceTypeName=5928E, status=1, insertTime=2021-04-07 15:40:06.0, updateTime=2021-04-07 15:40:06.0)</t>
+  </si>
+  <si>
+    <t>Network(networkId=2, networkCode=SITE_ROUTER, networkName=SITE_ROUTER, parentId=1, status=1, insertTime=2021-04-07 15:25:47.0, updateTime=2021-04-07 15:44:56.0)</t>
+  </si>
+  <si>
+    <t>YUKYGJK</t>
+  </si>
+  <si>
+    <t>2021-05-05 08:22:58.0</t>
+  </si>
+  <si>
+    <t>13274377</t>
+  </si>
+  <si>
+    <t>SLA8001ASW03</t>
+  </si>
+  <si>
+    <t>172.16.159.135</t>
+  </si>
+  <si>
+    <t>172.16.159.135,,</t>
+  </si>
+  <si>
+    <t>456123452205563211</t>
+  </si>
+  <si>
+    <t>15673150</t>
+  </si>
+  <si>
+    <t>SLA8001ASW04</t>
+  </si>
+  <si>
+    <t>172.16.159.69</t>
+  </si>
+  <si>
+    <t>172.16.159.69,,</t>
+  </si>
+  <si>
+    <t>DeviceType(deviceTypeId=4720, deviceTypeCode=SM4220-28TC, deviceTypeName=MyPower S4220, status=1, insertTime=2021-04-07 15:40:07.0, updateTime=2021-04-07 15:40:07.0)</t>
+  </si>
+  <si>
+    <t>SADSADSA</t>
+  </si>
+  <si>
+    <t>94972</t>
+  </si>
+  <si>
+    <t>SLA0504SRT01</t>
+  </si>
+  <si>
+    <t>10.246.32.68</t>
+  </si>
+  <si>
+    <t>10.246.32.68,,</t>
+  </si>
+  <si>
+    <t>Station(stationId=55323, stationCode=SLA0504, stationName=SLA504, stationTypeId=222, installDate=2010-03-17 00:00:00.0, departmentId=1738, locationId=10946, address=Tổ 1, phường Tô Hiệu, TP Sơn La, description=_, position=2, gpsX=21, gpsY=103, homeOwner=Bộ Chỉ huy bộ đội Biên phòng tỉnh Sơn La, telephone=0978163364, status=1, insertTime=2021-04-07 08:05:51.0, updateTime=2021-04-08 07:58:47.0)</t>
+  </si>
+  <si>
+    <t>2.5153940007E11</t>
+  </si>
+  <si>
+    <t>94946</t>
+  </si>
+  <si>
+    <t>SLA0095SRT01</t>
+  </si>
+  <si>
+    <t>10.246.32.102</t>
+  </si>
+  <si>
+    <t>10.246.32.102,,</t>
+  </si>
+  <si>
+    <t>Station(stationId=55232, stationCode=SLA0095, stationName=SLA095, stationTypeId=221, installDate=2008-07-18 00:00:00.0, departmentId=1738, locationId=10946, address=Nguyễn Thị Miễn-P.Quyết Thắng - TP.Sơn La, description=_, position=2, gpsX=21, gpsY=103, homeOwner=Nguyễn Thị Miễn, telephone=01664588691, status=0, insertTime=2021-04-07 08:05:51.0, updateTime=2021-04-08 07:58:47.0)</t>
+  </si>
+  <si>
+    <t>2.51595900064E11</t>
+  </si>
+  <si>
+    <t>255838</t>
+  </si>
+  <si>
+    <t>SLA0095ASW01</t>
+  </si>
+  <si>
+    <t>172.16.159.60</t>
+  </si>
+  <si>
+    <t>172.16.159.60,,</t>
+  </si>
+  <si>
+    <t>23453453453</t>
+  </si>
+  <si>
+    <t>14237311</t>
+  </si>
+  <si>
+    <t>SLA0095SRT02</t>
+  </si>
+  <si>
+    <t>10.246.34.99</t>
+  </si>
+  <si>
+    <t>10.246.34.99,,</t>
+  </si>
+  <si>
+    <t>DeviceType(deviceTypeId=4703, deviceTypeCode=S5328, deviceTypeName=S5328, status=1, insertTime=2021-04-07 15:40:06.0, updateTime=2021-04-07 15:40:06.0)</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>94953</t>
+  </si>
+  <si>
+    <t>SLA0105SRT01</t>
+  </si>
+  <si>
+    <t>10.246.32.66</t>
+  </si>
+  <si>
+    <t>10.246.32.66,,</t>
+  </si>
+  <si>
+    <t>Station(stationId=55238, stationCode=SLA0105, stationName=SLA105, stationTypeId=221, installDate=2009-08-19 00:00:00.0, departmentId=1738, locationId=10946, address=trần Quốc Hội SN183 - Đường Nguyễn Lương Bằng Quyết Thắng TP Sơn La, description=_, position=2, gpsX=21, gpsY=103, homeOwner=Chu THị Hải Sâm, telephone=0912022764, status=0, insertTime=2021-04-07 08:05:51.0, updateTime=2021-04-08 07:58:47.0)</t>
+  </si>
+  <si>
+    <t>2.51551800189E11</t>
+  </si>
+  <si>
+    <t>13244335</t>
+  </si>
+  <si>
+    <t>SLA0105ASW02</t>
+  </si>
+  <si>
+    <t>172.16.159.130</t>
+  </si>
+  <si>
+    <t>172.16.159.130,,</t>
+  </si>
+  <si>
+    <t>12321232121121</t>
+  </si>
+  <si>
+    <t>275425</t>
+  </si>
+  <si>
+    <t>SLA0105ASW01</t>
+  </si>
+  <si>
+    <t>172.16.159.62</t>
+  </si>
+  <si>
+    <t>172.16.159.62,,</t>
+  </si>
+  <si>
+    <t>13629280</t>
+  </si>
+  <si>
+    <t>SLA0105OLT01</t>
+  </si>
+  <si>
+    <t>10.4.132.246</t>
+  </si>
+  <si>
+    <t>10.4.132.246,100.100.100.118,200.200.200.218</t>
+  </si>
+  <si>
+    <t>295827</t>
+  </si>
+  <si>
+    <t>SLA0146ASW01</t>
+  </si>
+  <si>
+    <t>10.239.64.1</t>
+  </si>
+  <si>
+    <t>10.239.64.1,,</t>
+  </si>
+  <si>
+    <t>Station(stationId=55257, stationCode=SLA0146, stationName=SLA146, stationTypeId=221, installDate=2009-01-13 00:00:00.0, departmentId=1738, locationId=10946, address=Cầu Trắng TX Sơn La, description=null, position=2, gpsX=21, gpsY=103, homeOwner=Đinh Công Kiên, telephone=91235444, status=0, insertTime=2021-04-07 08:05:51.0, updateTime=2021-04-08 07:58:47.0)</t>
+  </si>
+  <si>
+    <t>467483555</t>
   </si>
 </sst>
 </file>
@@ -249,7 +597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -350,44 +698,44 @@
         <v>28</v>
       </c>
       <c r="C2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="E2" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>31</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="H2" t="s" s="2">
+      <c r="I2" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="I2" t="s" s="2">
+      <c r="J2" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="J2" t="s" s="2">
+      <c r="K2" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="N2" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="N2" t="s" s="2">
+      <c r="O2" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="O2" t="s" s="2">
+      <c r="P2" t="s" s="2">
         <v>40</v>
-      </c>
-      <c r="P2" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
@@ -397,20 +745,20 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y2" t="s" s="2">
         <v>42</v>
-      </c>
-      <c r="Y2" t="s" s="2">
-        <v>43</v>
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>44</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>45</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>45</v>
@@ -432,25 +780,25 @@
         <v>50</v>
       </c>
       <c r="J3" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K3" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="K3" t="s" s="2">
-        <v>36</v>
-      </c>
       <c r="L3" t="s" s="2">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="O3" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="O3" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="P3" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
@@ -460,13 +808,1179 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y3" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="Y3" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z3" s="2"/>
+      <c r="Z3" t="s" s="2">
+        <v>55</v>
+      </c>
       <c r="AA3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="L4" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="O4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P4" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y4" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z4" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AA4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="O5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P5" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AA5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="N6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="O6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="N7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="O7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="O8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P8" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AA8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="O9" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P9" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AA9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="O10" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P10" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AA10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P11" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AA11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AA12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="E13" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P13" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AA13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="E14" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P14" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AA14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="E15" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P15" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AA15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="E16" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P16" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AA16" s="2"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="E17" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P17" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AA17" s="2"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="E18" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P18" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AA18" s="2"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="D19" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="E19" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P19" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AA19" s="2"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="D20" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="E20" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="D21" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="E21" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P21" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AA21" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
